--- a/Code/Results/Cases/Case_1_118/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_118/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.03147201390759</v>
+        <v>1.057236911003858</v>
       </c>
       <c r="D2">
-        <v>1.065768188497669</v>
+        <v>1.072357165746389</v>
       </c>
       <c r="E2">
-        <v>1.046229590448398</v>
+        <v>1.064816578236727</v>
       </c>
       <c r="F2">
-        <v>1.063811763384792</v>
+        <v>1.078867001718659</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.070763643924377</v>
+        <v>1.058039239564317</v>
       </c>
       <c r="J2">
-        <v>1.052750489295903</v>
+        <v>1.062234382032436</v>
       </c>
       <c r="K2">
-        <v>1.076381443921499</v>
+        <v>1.075051895221895</v>
       </c>
       <c r="L2">
-        <v>1.057080361143234</v>
+        <v>1.067531494027487</v>
       </c>
       <c r="M2">
-        <v>1.074448314048479</v>
+        <v>1.081544549425495</v>
       </c>
       <c r="N2">
-        <v>1.020650215713844</v>
+        <v>1.024420750799954</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.036664454625781</v>
+        <v>1.058322516604582</v>
       </c>
       <c r="D3">
-        <v>1.069621366524065</v>
+        <v>1.073163689965299</v>
       </c>
       <c r="E3">
-        <v>1.050523800970459</v>
+        <v>1.065755335691515</v>
       </c>
       <c r="F3">
-        <v>1.068205919234181</v>
+        <v>1.079821295433667</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.072784775925867</v>
+        <v>1.058388038390082</v>
       </c>
       <c r="J3">
-        <v>1.056203172092394</v>
+        <v>1.06297172321609</v>
       </c>
       <c r="K3">
-        <v>1.079434679003587</v>
+        <v>1.075675173334507</v>
       </c>
       <c r="L3">
-        <v>1.060548593203369</v>
+        <v>1.068285220874017</v>
       </c>
       <c r="M3">
-        <v>1.078034587466713</v>
+        <v>1.082316473462619</v>
       </c>
       <c r="N3">
-        <v>1.021860551915758</v>
+        <v>1.02467413449566</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.039951557611277</v>
+        <v>1.059025246667003</v>
       </c>
       <c r="D4">
-        <v>1.072063210386073</v>
+        <v>1.073685671780299</v>
       </c>
       <c r="E4">
-        <v>1.053247553931783</v>
+        <v>1.066363286760051</v>
       </c>
       <c r="F4">
-        <v>1.070992843353409</v>
+        <v>1.08043927104509</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.074054431610298</v>
+        <v>1.058612574425759</v>
       </c>
       <c r="J4">
-        <v>1.058385711895445</v>
+        <v>1.063448506015858</v>
       </c>
       <c r="K4">
-        <v>1.08136325457849</v>
+        <v>1.076077925932905</v>
       </c>
       <c r="L4">
-        <v>1.062743150491551</v>
+        <v>1.068772815474181</v>
       </c>
       <c r="M4">
-        <v>1.080303787323773</v>
+        <v>1.082815815042101</v>
       </c>
       <c r="N4">
-        <v>1.022624899187354</v>
+        <v>1.024837802961399</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.041316721726825</v>
+        <v>1.059320739229565</v>
       </c>
       <c r="D5">
-        <v>1.073077873107357</v>
+        <v>1.073905137621286</v>
       </c>
       <c r="E5">
-        <v>1.054379967337723</v>
+        <v>1.06661899141651</v>
       </c>
       <c r="F5">
-        <v>1.072151458810073</v>
+        <v>1.080699183076273</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.074579326611122</v>
+        <v>1.05870669135509</v>
       </c>
       <c r="J5">
-        <v>1.059291335001938</v>
+        <v>1.063648867097708</v>
       </c>
       <c r="K5">
-        <v>1.082163120541705</v>
+        <v>1.076247110865521</v>
       </c>
       <c r="L5">
-        <v>1.06365427870999</v>
+        <v>1.068977771782887</v>
       </c>
       <c r="M5">
-        <v>1.081245885040388</v>
+        <v>1.083025702985786</v>
       </c>
       <c r="N5">
-        <v>1.02294186972497</v>
+        <v>1.02490654008349</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.041544976670254</v>
+        <v>1.059370357535171</v>
       </c>
       <c r="D6">
-        <v>1.0732475541485</v>
+        <v>1.073941988324233</v>
       </c>
       <c r="E6">
-        <v>1.054569376303603</v>
+        <v>1.066661932491836</v>
       </c>
       <c r="F6">
-        <v>1.072345246508484</v>
+        <v>1.080742830177371</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.07466694620159</v>
+        <v>1.058722477690248</v>
       </c>
       <c r="J6">
-        <v>1.05944270640703</v>
+        <v>1.063682503998433</v>
       </c>
       <c r="K6">
-        <v>1.082296792115387</v>
+        <v>1.07627550998742</v>
       </c>
       <c r="L6">
-        <v>1.063806600583616</v>
+        <v>1.069012183167416</v>
       </c>
       <c r="M6">
-        <v>1.081403382939915</v>
+        <v>1.08306094201112</v>
       </c>
       <c r="N6">
-        <v>1.022994838801913</v>
+        <v>1.024918077290318</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.039969863876914</v>
+        <v>1.059029194798212</v>
       </c>
       <c r="D7">
-        <v>1.072076814529825</v>
+        <v>1.073688604197688</v>
       </c>
       <c r="E7">
-        <v>1.05326273438253</v>
+        <v>1.066366703019448</v>
       </c>
       <c r="F7">
-        <v>1.071008375307174</v>
+        <v>1.08044274355108</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.074061479787859</v>
+        <v>1.058613833113553</v>
       </c>
       <c r="J7">
-        <v>1.058397859146065</v>
+        <v>1.063451183558898</v>
       </c>
       <c r="K7">
-        <v>1.081373984819027</v>
+        <v>1.076080187110676</v>
       </c>
       <c r="L7">
-        <v>1.062755369541396</v>
+        <v>1.068775554222782</v>
       </c>
       <c r="M7">
-        <v>1.080316421793799</v>
+        <v>1.082818619714321</v>
       </c>
       <c r="N7">
-        <v>1.022629151513032</v>
+        <v>1.024838721701978</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.033242311240045</v>
+        <v>1.057603740489732</v>
       </c>
       <c r="D8">
-        <v>1.067081295891024</v>
+        <v>1.07262971176851</v>
       </c>
       <c r="E8">
-        <v>1.04769250622385</v>
+        <v>1.06513372929385</v>
       </c>
       <c r="F8">
-        <v>1.065308769213273</v>
+        <v>1.079189409141403</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.071454759001574</v>
+        <v>1.058157357802122</v>
       </c>
       <c r="J8">
-        <v>1.053928285992434</v>
+        <v>1.062483637307853</v>
       </c>
       <c r="K8">
-        <v>1.077423269634317</v>
+        <v>1.075262648511675</v>
       </c>
       <c r="L8">
-        <v>1.058262998196151</v>
+        <v>1.067786243522679</v>
       </c>
       <c r="M8">
-        <v>1.075671207195113</v>
+        <v>1.081805454425749</v>
       </c>
       <c r="N8">
-        <v>1.021063241268436</v>
+        <v>1.024506442451109</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.020797548213957</v>
+        <v>1.055093978101224</v>
       </c>
       <c r="D9">
-        <v>1.05786460462131</v>
+        <v>1.070764663134234</v>
       </c>
       <c r="E9">
-        <v>1.03743334695244</v>
+        <v>1.062965021309404</v>
       </c>
       <c r="F9">
-        <v>1.05480995792882</v>
+        <v>1.076984610847086</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.066556480781592</v>
+        <v>1.057344117164724</v>
       </c>
       <c r="J9">
-        <v>1.045636678095612</v>
+        <v>1.060776211603636</v>
       </c>
       <c r="K9">
-        <v>1.070083789885007</v>
+        <v>1.073817854162502</v>
       </c>
       <c r="L9">
-        <v>1.049946946341527</v>
+        <v>1.066042074015563</v>
       </c>
       <c r="M9">
-        <v>1.067072243713745</v>
+        <v>1.08001904296994</v>
       </c>
       <c r="N9">
-        <v>1.018152827447403</v>
+        <v>1.023918729856837</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.012055172293882</v>
+        <v>1.053422188563526</v>
       </c>
       <c r="D10">
-        <v>1.051411707926443</v>
+        <v>1.069521921751972</v>
       </c>
       <c r="E10">
-        <v>1.030260651090992</v>
+        <v>1.061521904681817</v>
       </c>
       <c r="F10">
-        <v>1.047469393658244</v>
+        <v>1.075517299163169</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.063066904151674</v>
+        <v>1.056796006744734</v>
       </c>
       <c r="J10">
-        <v>1.039798526030445</v>
+        <v>1.05963627235844</v>
       </c>
       <c r="K10">
-        <v>1.064910862727926</v>
+        <v>1.072851875952035</v>
       </c>
       <c r="L10">
-        <v>1.044104221050607</v>
+        <v>1.064878728042778</v>
       </c>
       <c r="M10">
-        <v>1.061031391032022</v>
+        <v>1.078827404506792</v>
       </c>
       <c r="N10">
-        <v>1.016100571922639</v>
+        <v>1.023525458545823</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.008151789053386</v>
+        <v>1.052698611465688</v>
       </c>
       <c r="D11">
-        <v>1.048537026004055</v>
+        <v>1.068983959034735</v>
       </c>
       <c r="E11">
-        <v>1.02706721237108</v>
+        <v>1.060897663393725</v>
       </c>
       <c r="F11">
-        <v>1.044201289829853</v>
+        <v>1.074882550827606</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.06149806966957</v>
+        <v>1.056557260531193</v>
       </c>
       <c r="J11">
-        <v>1.037189332695229</v>
+        <v>1.059142276107446</v>
       </c>
       <c r="K11">
-        <v>1.062598194418404</v>
+        <v>1.072432943358511</v>
       </c>
       <c r="L11">
-        <v>1.041496117049131</v>
+        <v>1.064374856501741</v>
       </c>
       <c r="M11">
-        <v>1.058335149198231</v>
+        <v>1.078311252602705</v>
       </c>
       <c r="N11">
-        <v>1.01518281408557</v>
+        <v>1.023354823125933</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.006683063208611</v>
+        <v>1.052429890297752</v>
       </c>
       <c r="D12">
-        <v>1.047456460485753</v>
+        <v>1.068784159380166</v>
       </c>
       <c r="E12">
-        <v>1.025867071552136</v>
+        <v>1.060665888640999</v>
       </c>
       <c r="F12">
-        <v>1.042973113495588</v>
+        <v>1.074646868854263</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.060906213598954</v>
+        <v>1.05646836777661</v>
       </c>
       <c r="J12">
-        <v>1.036207252369051</v>
+        <v>1.058958724686529</v>
       </c>
       <c r="K12">
-        <v>1.06172764755294</v>
+        <v>1.072277234791364</v>
       </c>
       <c r="L12">
-        <v>1.040514930012343</v>
+        <v>1.064187676167134</v>
       </c>
       <c r="M12">
-        <v>1.057320863448752</v>
+        <v>1.07811950649828</v>
       </c>
       <c r="N12">
-        <v>1.014837306379742</v>
+        <v>1.023291389661716</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.00699898131611</v>
+        <v>1.052487529752194</v>
       </c>
       <c r="D13">
-        <v>1.047688835318956</v>
+        <v>1.068827016002163</v>
       </c>
       <c r="E13">
-        <v>1.026125150749444</v>
+        <v>1.060715600749314</v>
       </c>
       <c r="F13">
-        <v>1.043237220124306</v>
+        <v>1.074697419273193</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.061033588818424</v>
+        <v>1.056487445154931</v>
       </c>
       <c r="J13">
-        <v>1.036418508061766</v>
+        <v>1.058998099767003</v>
       </c>
       <c r="K13">
-        <v>1.061914914006567</v>
+        <v>1.072310639250747</v>
       </c>
       <c r="L13">
-        <v>1.040725971507504</v>
+        <v>1.064227827885233</v>
       </c>
       <c r="M13">
-        <v>1.057539021164797</v>
+        <v>1.078160637781674</v>
       </c>
       <c r="N13">
-        <v>1.014911631650399</v>
+        <v>1.023304998699802</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.008030774789246</v>
+        <v>1.052676397921221</v>
       </c>
       <c r="D14">
-        <v>1.048447970965613</v>
+        <v>1.068967443046203</v>
       </c>
       <c r="E14">
-        <v>1.026968297844852</v>
+        <v>1.060878502854198</v>
       </c>
       <c r="F14">
-        <v>1.044100064056874</v>
+        <v>1.074863067405698</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.061449335356695</v>
+        <v>1.056549916947618</v>
       </c>
       <c r="J14">
-        <v>1.037108421258922</v>
+        <v>1.059127104896995</v>
       </c>
       <c r="K14">
-        <v>1.062526473285792</v>
+        <v>1.072420074443424</v>
       </c>
       <c r="L14">
-        <v>1.041415269315308</v>
+        <v>1.06435938452344</v>
       </c>
       <c r="M14">
-        <v>1.05825157291171</v>
+        <v>1.078295403303281</v>
       </c>
       <c r="N14">
-        <v>1.015154349822309</v>
+        <v>1.023349580753215</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.00866396569528</v>
+        <v>1.052792772129598</v>
       </c>
       <c r="D15">
-        <v>1.048913984678325</v>
+        <v>1.069053967938874</v>
       </c>
       <c r="E15">
-        <v>1.027485914615738</v>
+        <v>1.06097888498562</v>
       </c>
       <c r="F15">
-        <v>1.044629776604753</v>
+        <v>1.074965140871702</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.06170426834621</v>
+        <v>1.056588379823165</v>
       </c>
       <c r="J15">
-        <v>1.037531766849504</v>
+        <v>1.0592065813723</v>
       </c>
       <c r="K15">
-        <v>1.062901730421656</v>
+        <v>1.072487488058925</v>
       </c>
       <c r="L15">
-        <v>1.04183830136457</v>
+        <v>1.064440438267181</v>
       </c>
       <c r="M15">
-        <v>1.058688884490394</v>
+        <v>1.07837843358088</v>
       </c>
       <c r="N15">
-        <v>1.015303278014779</v>
+        <v>1.023377042359099</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.012311649404009</v>
+        <v>1.053470216682439</v>
       </c>
       <c r="D16">
-        <v>1.051600737341297</v>
+        <v>1.069557627841973</v>
       </c>
       <c r="E16">
-        <v>1.030470676913785</v>
+        <v>1.061563346994384</v>
       </c>
       <c r="F16">
-        <v>1.047684332714147</v>
+        <v>1.07555943816442</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.06316976798013</v>
+        <v>1.056811821835799</v>
       </c>
       <c r="J16">
-        <v>1.039969919137817</v>
+        <v>1.059669048950899</v>
       </c>
       <c r="K16">
-        <v>1.065062764837088</v>
+        <v>1.072879665311447</v>
       </c>
       <c r="L16">
-        <v>1.044275608821402</v>
+        <v>1.064912165515964</v>
       </c>
       <c r="M16">
-        <v>1.06120857810775</v>
+        <v>1.078861656377079</v>
       </c>
       <c r="N16">
-        <v>1.016160847204102</v>
+        <v>1.023536775773429</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.014567419202227</v>
+        <v>1.053895244882924</v>
       </c>
       <c r="D17">
-        <v>1.053264039839076</v>
+        <v>1.069873601744288</v>
       </c>
       <c r="E17">
-        <v>1.032318942097933</v>
+        <v>1.061930135623718</v>
       </c>
       <c r="F17">
-        <v>1.049575845165139</v>
+        <v>1.075932388157302</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.064073260150626</v>
+        <v>1.056951603521946</v>
       </c>
       <c r="J17">
-        <v>1.041477078062842</v>
+        <v>1.059959036974662</v>
       </c>
       <c r="K17">
-        <v>1.066398444425408</v>
+        <v>1.073125491989979</v>
       </c>
       <c r="L17">
-        <v>1.045783078205899</v>
+        <v>1.065208031595665</v>
       </c>
       <c r="M17">
-        <v>1.062767092289301</v>
+        <v>1.079164725503559</v>
       </c>
       <c r="N17">
-        <v>1.016690820511229</v>
+        <v>1.023636879712083</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.015871878848761</v>
+        <v>1.054143187422073</v>
       </c>
       <c r="D18">
-        <v>1.05422649423598</v>
+        <v>1.070057918640342</v>
       </c>
       <c r="E18">
-        <v>1.033388607082427</v>
+        <v>1.062144138727984</v>
       </c>
       <c r="F18">
-        <v>1.050670545099526</v>
+        <v>1.076149982135687</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.064594703609128</v>
+        <v>1.057032999682513</v>
       </c>
       <c r="J18">
-        <v>1.042348390835918</v>
+        <v>1.060128143958577</v>
       </c>
       <c r="K18">
-        <v>1.067170545797807</v>
+        <v>1.073268815047817</v>
       </c>
       <c r="L18">
-        <v>1.046654866239825</v>
+        <v>1.065380592224186</v>
       </c>
       <c r="M18">
-        <v>1.063668427933798</v>
+        <v>1.079341484689023</v>
       </c>
       <c r="N18">
-        <v>1.016997152504077</v>
+        <v>1.023695235217444</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.016314783164345</v>
+        <v>1.054227734651059</v>
       </c>
       <c r="D19">
-        <v>1.054553376410599</v>
+        <v>1.070120768403589</v>
       </c>
       <c r="E19">
-        <v>1.033751934028294</v>
+        <v>1.06221711867459</v>
       </c>
       <c r="F19">
-        <v>1.051042376153086</v>
+        <v>1.076224185973896</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.064771573897878</v>
+        <v>1.057060730574192</v>
       </c>
       <c r="J19">
-        <v>1.042644185591797</v>
+        <v>1.060185798599497</v>
       </c>
       <c r="K19">
-        <v>1.067432645960103</v>
+        <v>1.073317673724768</v>
       </c>
       <c r="L19">
-        <v>1.04695087215254</v>
+        <v>1.065439428717081</v>
       </c>
       <c r="M19">
-        <v>1.063974470724168</v>
+        <v>1.079401752292233</v>
       </c>
       <c r="N19">
-        <v>1.01710113704198</v>
+        <v>1.023715127261739</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.014326572357763</v>
+        <v>1.053849640197786</v>
       </c>
       <c r="D20">
-        <v>1.053086386684178</v>
+        <v>1.069839699212677</v>
       </c>
       <c r="E20">
-        <v>1.032121514791448</v>
+        <v>1.061890776310287</v>
       </c>
       <c r="F20">
-        <v>1.049373797568631</v>
+        <v>1.075892368091506</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.063976900898243</v>
+        <v>1.056936620349381</v>
       </c>
       <c r="J20">
-        <v>1.041316184594159</v>
+        <v>1.059927927946463</v>
       </c>
       <c r="K20">
-        <v>1.066255864512822</v>
+        <v>1.07309912367702</v>
       </c>
       <c r="L20">
-        <v>1.045622120809745</v>
+        <v>1.065176289313091</v>
       </c>
       <c r="M20">
-        <v>1.062600681696615</v>
+        <v>1.079132210696881</v>
       </c>
       <c r="N20">
-        <v>1.016634249883005</v>
+        <v>1.023626142963299</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.00772746678138</v>
+        <v>1.05262077964181</v>
       </c>
       <c r="D21">
-        <v>1.048224782979439</v>
+        <v>1.068926090122953</v>
       </c>
       <c r="E21">
-        <v>1.026720403954185</v>
+        <v>1.060830529583831</v>
       </c>
       <c r="F21">
-        <v>1.043846378299217</v>
+        <v>1.074814285619987</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.061327163802631</v>
+        <v>1.056531526406517</v>
       </c>
       <c r="J21">
-        <v>1.036905621333671</v>
+        <v>1.059089117735221</v>
       </c>
       <c r="K21">
-        <v>1.062346707249473</v>
+        <v>1.072387851218026</v>
       </c>
       <c r="L21">
-        <v>1.041212636883099</v>
+        <v>1.064320644922536</v>
       </c>
       <c r="M21">
-        <v>1.058042102785636</v>
+        <v>1.078255718883671</v>
       </c>
       <c r="N21">
-        <v>1.01508300466987</v>
+        <v>1.023336453880264</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.003468744713141</v>
+        <v>1.051848421389189</v>
       </c>
       <c r="D22">
-        <v>1.045093778587534</v>
+        <v>1.068351805032724</v>
       </c>
       <c r="E22">
-        <v>1.023243330451856</v>
+        <v>1.060164467514195</v>
       </c>
       <c r="F22">
-        <v>1.04028814275421</v>
+        <v>1.07413698391486</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.059608157022304</v>
+        <v>1.056275602556469</v>
       </c>
       <c r="J22">
-        <v>1.034057442343183</v>
+        <v>1.058561381912512</v>
       </c>
       <c r="K22">
-        <v>1.059821894974381</v>
+        <v>1.071940077202597</v>
       </c>
       <c r="L22">
-        <v>1.038367979402562</v>
+        <v>1.063782551706572</v>
       </c>
       <c r="M22">
-        <v>1.055101614291924</v>
+        <v>1.077704493277985</v>
       </c>
       <c r="N22">
-        <v>1.014080862666446</v>
+        <v>1.023154014823464</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.005737163261528</v>
+        <v>1.052257837134378</v>
       </c>
       <c r="D23">
-        <v>1.046760869383105</v>
+        <v>1.068656231172571</v>
       </c>
       <c r="E23">
-        <v>1.025094568974579</v>
+        <v>1.060517506661802</v>
       </c>
       <c r="F23">
-        <v>1.042182573875772</v>
+        <v>1.074495983786677</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.060524613781601</v>
+        <v>1.056411388708751</v>
       </c>
       <c r="J23">
-        <v>1.035574683258779</v>
+        <v>1.058841177082477</v>
       </c>
       <c r="K23">
-        <v>1.061166902200919</v>
+        <v>1.072177504442555</v>
       </c>
       <c r="L23">
-        <v>1.039883074124101</v>
+        <v>1.064067815967012</v>
       </c>
       <c r="M23">
-        <v>1.056667711486575</v>
+        <v>1.077996721569691</v>
       </c>
       <c r="N23">
-        <v>1.014614742758043</v>
+        <v>1.023250757604342</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.01443543549478</v>
+        <v>1.05387024689667</v>
       </c>
       <c r="D24">
-        <v>1.053166684310901</v>
+        <v>1.069855018262102</v>
       </c>
       <c r="E24">
-        <v>1.032210749583899</v>
+        <v>1.061908560899753</v>
       </c>
       <c r="F24">
-        <v>1.049465120659514</v>
+        <v>1.075910451255645</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.064020458610523</v>
+        <v>1.056943391020705</v>
       </c>
       <c r="J24">
-        <v>1.041388909441163</v>
+        <v>1.059941984894946</v>
       </c>
       <c r="K24">
-        <v>1.066320311758908</v>
+        <v>1.073111038578775</v>
       </c>
       <c r="L24">
-        <v>1.045694873635827</v>
+        <v>1.065190632324521</v>
       </c>
       <c r="M24">
-        <v>1.062675899285224</v>
+        <v>1.079146902787553</v>
       </c>
       <c r="N24">
-        <v>1.016659820327066</v>
+        <v>1.023630994541194</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.024089576275006</v>
+        <v>1.055742567192604</v>
       </c>
       <c r="D25">
-        <v>1.060299368286572</v>
+        <v>1.071246716477336</v>
       </c>
       <c r="E25">
-        <v>1.040141612821967</v>
+        <v>1.063525212858346</v>
       </c>
       <c r="F25">
-        <v>1.057581588778046</v>
+        <v>1.077554156943902</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.067860814355026</v>
+        <v>1.057555409238148</v>
       </c>
       <c r="J25">
-        <v>1.047832564619224</v>
+        <v>1.061217915017158</v>
       </c>
       <c r="K25">
-        <v>1.072028550903302</v>
+        <v>1.074191860896863</v>
       </c>
       <c r="L25">
-        <v>1.05214717643331</v>
+        <v>1.066493085202064</v>
       </c>
       <c r="M25">
-        <v>1.069347262027661</v>
+        <v>1.080480998423775</v>
       </c>
       <c r="N25">
-        <v>1.01892416803774</v>
+        <v>1.024070926399436</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_118/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_118/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.057236911003858</v>
+        <v>1.03147201390759</v>
       </c>
       <c r="D2">
-        <v>1.072357165746389</v>
+        <v>1.065768188497669</v>
       </c>
       <c r="E2">
-        <v>1.064816578236727</v>
+        <v>1.046229590448398</v>
       </c>
       <c r="F2">
-        <v>1.078867001718659</v>
+        <v>1.063811763384792</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058039239564317</v>
+        <v>1.070763643924378</v>
       </c>
       <c r="J2">
-        <v>1.062234382032436</v>
+        <v>1.052750489295903</v>
       </c>
       <c r="K2">
-        <v>1.075051895221895</v>
+        <v>1.0763814439215</v>
       </c>
       <c r="L2">
-        <v>1.067531494027487</v>
+        <v>1.057080361143235</v>
       </c>
       <c r="M2">
-        <v>1.081544549425495</v>
+        <v>1.074448314048479</v>
       </c>
       <c r="N2">
-        <v>1.024420750799954</v>
+        <v>1.020650215713844</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.058322516604582</v>
+        <v>1.03666445462578</v>
       </c>
       <c r="D3">
-        <v>1.073163689965299</v>
+        <v>1.069621366524064</v>
       </c>
       <c r="E3">
-        <v>1.065755335691515</v>
+        <v>1.050523800970458</v>
       </c>
       <c r="F3">
-        <v>1.079821295433667</v>
+        <v>1.06820591923418</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058388038390082</v>
+        <v>1.072784775925866</v>
       </c>
       <c r="J3">
-        <v>1.06297172321609</v>
+        <v>1.056203172092394</v>
       </c>
       <c r="K3">
-        <v>1.075675173334507</v>
+        <v>1.079434679003587</v>
       </c>
       <c r="L3">
-        <v>1.068285220874017</v>
+        <v>1.060548593203369</v>
       </c>
       <c r="M3">
-        <v>1.082316473462619</v>
+        <v>1.078034587466712</v>
       </c>
       <c r="N3">
-        <v>1.02467413449566</v>
+        <v>1.021860551915758</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.059025246667003</v>
+        <v>1.039951557611277</v>
       </c>
       <c r="D4">
-        <v>1.073685671780299</v>
+        <v>1.072063210386073</v>
       </c>
       <c r="E4">
-        <v>1.066363286760051</v>
+        <v>1.053247553931783</v>
       </c>
       <c r="F4">
-        <v>1.08043927104509</v>
+        <v>1.070992843353409</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058612574425759</v>
+        <v>1.074054431610297</v>
       </c>
       <c r="J4">
-        <v>1.063448506015858</v>
+        <v>1.058385711895445</v>
       </c>
       <c r="K4">
-        <v>1.076077925932905</v>
+        <v>1.08136325457849</v>
       </c>
       <c r="L4">
-        <v>1.068772815474181</v>
+        <v>1.062743150491551</v>
       </c>
       <c r="M4">
-        <v>1.082815815042101</v>
+        <v>1.080303787323773</v>
       </c>
       <c r="N4">
-        <v>1.024837802961399</v>
+        <v>1.022624899187354</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059320739229565</v>
+        <v>1.041316721726824</v>
       </c>
       <c r="D5">
-        <v>1.073905137621286</v>
+        <v>1.073077873107356</v>
       </c>
       <c r="E5">
-        <v>1.06661899141651</v>
+        <v>1.054379967337723</v>
       </c>
       <c r="F5">
-        <v>1.080699183076273</v>
+        <v>1.072151458810072</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05870669135509</v>
+        <v>1.074579326611121</v>
       </c>
       <c r="J5">
-        <v>1.063648867097708</v>
+        <v>1.059291335001937</v>
       </c>
       <c r="K5">
-        <v>1.076247110865521</v>
+        <v>1.082163120541704</v>
       </c>
       <c r="L5">
-        <v>1.068977771782887</v>
+        <v>1.063654278709989</v>
       </c>
       <c r="M5">
-        <v>1.083025702985786</v>
+        <v>1.081245885040387</v>
       </c>
       <c r="N5">
-        <v>1.02490654008349</v>
+        <v>1.02294186972497</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.059370357535171</v>
+        <v>1.041544976670254</v>
       </c>
       <c r="D6">
-        <v>1.073941988324233</v>
+        <v>1.073247554148501</v>
       </c>
       <c r="E6">
-        <v>1.066661932491836</v>
+        <v>1.054569376303604</v>
       </c>
       <c r="F6">
-        <v>1.080742830177371</v>
+        <v>1.072345246508485</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058722477690248</v>
+        <v>1.07466694620159</v>
       </c>
       <c r="J6">
-        <v>1.063682503998433</v>
+        <v>1.059442706407031</v>
       </c>
       <c r="K6">
-        <v>1.07627550998742</v>
+        <v>1.082296792115388</v>
       </c>
       <c r="L6">
-        <v>1.069012183167416</v>
+        <v>1.063806600583617</v>
       </c>
       <c r="M6">
-        <v>1.08306094201112</v>
+        <v>1.081403382939916</v>
       </c>
       <c r="N6">
-        <v>1.024918077290318</v>
+        <v>1.022994838801912</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.059029194798212</v>
+        <v>1.039969863876913</v>
       </c>
       <c r="D7">
-        <v>1.073688604197688</v>
+        <v>1.072076814529825</v>
       </c>
       <c r="E7">
-        <v>1.066366703019448</v>
+        <v>1.053262734382529</v>
       </c>
       <c r="F7">
-        <v>1.08044274355108</v>
+        <v>1.071008375307172</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058613833113553</v>
+        <v>1.074061479787858</v>
       </c>
       <c r="J7">
-        <v>1.063451183558898</v>
+        <v>1.058397859146064</v>
       </c>
       <c r="K7">
-        <v>1.076080187110676</v>
+        <v>1.081373984819026</v>
       </c>
       <c r="L7">
-        <v>1.068775554222782</v>
+        <v>1.062755369541394</v>
       </c>
       <c r="M7">
-        <v>1.082818619714321</v>
+        <v>1.080316421793798</v>
       </c>
       <c r="N7">
-        <v>1.024838721701978</v>
+        <v>1.022629151513031</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.057603740489732</v>
+        <v>1.033242311240044</v>
       </c>
       <c r="D8">
-        <v>1.07262971176851</v>
+        <v>1.067081295891023</v>
       </c>
       <c r="E8">
-        <v>1.06513372929385</v>
+        <v>1.04769250622385</v>
       </c>
       <c r="F8">
-        <v>1.079189409141403</v>
+        <v>1.065308769213272</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058157357802122</v>
+        <v>1.071454759001574</v>
       </c>
       <c r="J8">
-        <v>1.062483637307853</v>
+        <v>1.053928285992433</v>
       </c>
       <c r="K8">
-        <v>1.075262648511675</v>
+        <v>1.077423269634316</v>
       </c>
       <c r="L8">
-        <v>1.067786243522679</v>
+        <v>1.05826299819615</v>
       </c>
       <c r="M8">
-        <v>1.081805454425749</v>
+        <v>1.075671207195112</v>
       </c>
       <c r="N8">
-        <v>1.024506442451109</v>
+        <v>1.021063241268436</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.055093978101224</v>
+        <v>1.020797548213957</v>
       </c>
       <c r="D9">
-        <v>1.070764663134234</v>
+        <v>1.05786460462131</v>
       </c>
       <c r="E9">
-        <v>1.062965021309404</v>
+        <v>1.03743334695244</v>
       </c>
       <c r="F9">
-        <v>1.076984610847086</v>
+        <v>1.054809957928819</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057344117164724</v>
+        <v>1.066556480781592</v>
       </c>
       <c r="J9">
-        <v>1.060776211603636</v>
+        <v>1.045636678095612</v>
       </c>
       <c r="K9">
-        <v>1.073817854162502</v>
+        <v>1.070083789885006</v>
       </c>
       <c r="L9">
-        <v>1.066042074015563</v>
+        <v>1.049946946341527</v>
       </c>
       <c r="M9">
-        <v>1.08001904296994</v>
+        <v>1.067072243713745</v>
       </c>
       <c r="N9">
-        <v>1.023918729856837</v>
+        <v>1.018152827447403</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.053422188563526</v>
+        <v>1.012055172293881</v>
       </c>
       <c r="D10">
-        <v>1.069521921751972</v>
+        <v>1.051411707926443</v>
       </c>
       <c r="E10">
-        <v>1.061521904681817</v>
+        <v>1.030260651090991</v>
       </c>
       <c r="F10">
-        <v>1.075517299163169</v>
+        <v>1.047469393658244</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056796006744734</v>
+        <v>1.063066904151674</v>
       </c>
       <c r="J10">
-        <v>1.05963627235844</v>
+        <v>1.039798526030445</v>
       </c>
       <c r="K10">
-        <v>1.072851875952035</v>
+        <v>1.064910862727926</v>
       </c>
       <c r="L10">
-        <v>1.064878728042778</v>
+        <v>1.044104221050607</v>
       </c>
       <c r="M10">
-        <v>1.078827404506792</v>
+        <v>1.061031391032022</v>
       </c>
       <c r="N10">
-        <v>1.023525458545823</v>
+        <v>1.016100571922639</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.052698611465688</v>
+        <v>1.008151789053386</v>
       </c>
       <c r="D11">
-        <v>1.068983959034735</v>
+        <v>1.048537026004055</v>
       </c>
       <c r="E11">
-        <v>1.060897663393725</v>
+        <v>1.02706721237108</v>
       </c>
       <c r="F11">
-        <v>1.074882550827606</v>
+        <v>1.044201289829854</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056557260531193</v>
+        <v>1.06149806966957</v>
       </c>
       <c r="J11">
-        <v>1.059142276107446</v>
+        <v>1.037189332695229</v>
       </c>
       <c r="K11">
-        <v>1.072432943358511</v>
+        <v>1.062598194418404</v>
       </c>
       <c r="L11">
-        <v>1.064374856501741</v>
+        <v>1.041496117049132</v>
       </c>
       <c r="M11">
-        <v>1.078311252602705</v>
+        <v>1.058335149198231</v>
       </c>
       <c r="N11">
-        <v>1.023354823125933</v>
+        <v>1.01518281408557</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.052429890297752</v>
+        <v>1.006683063208611</v>
       </c>
       <c r="D12">
-        <v>1.068784159380166</v>
+        <v>1.047456460485753</v>
       </c>
       <c r="E12">
-        <v>1.060665888640999</v>
+        <v>1.025867071552136</v>
       </c>
       <c r="F12">
-        <v>1.074646868854263</v>
+        <v>1.042973113495588</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05646836777661</v>
+        <v>1.060906213598954</v>
       </c>
       <c r="J12">
-        <v>1.058958724686529</v>
+        <v>1.036207252369051</v>
       </c>
       <c r="K12">
-        <v>1.072277234791364</v>
+        <v>1.06172764755294</v>
       </c>
       <c r="L12">
-        <v>1.064187676167134</v>
+        <v>1.040514930012343</v>
       </c>
       <c r="M12">
-        <v>1.07811950649828</v>
+        <v>1.057320863448752</v>
       </c>
       <c r="N12">
-        <v>1.023291389661716</v>
+        <v>1.014837306379742</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.052487529752194</v>
+        <v>1.006998981316108</v>
       </c>
       <c r="D13">
-        <v>1.068827016002163</v>
+        <v>1.047688835318955</v>
       </c>
       <c r="E13">
-        <v>1.060715600749314</v>
+        <v>1.026125150749444</v>
       </c>
       <c r="F13">
-        <v>1.074697419273193</v>
+        <v>1.043237220124305</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056487445154931</v>
+        <v>1.061033588818423</v>
       </c>
       <c r="J13">
-        <v>1.058998099767003</v>
+        <v>1.036418508061766</v>
       </c>
       <c r="K13">
-        <v>1.072310639250747</v>
+        <v>1.061914914006566</v>
       </c>
       <c r="L13">
-        <v>1.064227827885233</v>
+        <v>1.040725971507503</v>
       </c>
       <c r="M13">
-        <v>1.078160637781674</v>
+        <v>1.057539021164797</v>
       </c>
       <c r="N13">
-        <v>1.023304998699802</v>
+        <v>1.014911631650398</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.052676397921221</v>
+        <v>1.008030774789245</v>
       </c>
       <c r="D14">
-        <v>1.068967443046203</v>
+        <v>1.048447970965612</v>
       </c>
       <c r="E14">
-        <v>1.060878502854198</v>
+        <v>1.026968297844851</v>
       </c>
       <c r="F14">
-        <v>1.074863067405698</v>
+        <v>1.044100064056873</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056549916947618</v>
+        <v>1.061449335356695</v>
       </c>
       <c r="J14">
-        <v>1.059127104896995</v>
+        <v>1.037108421258921</v>
       </c>
       <c r="K14">
-        <v>1.072420074443424</v>
+        <v>1.062526473285791</v>
       </c>
       <c r="L14">
-        <v>1.06435938452344</v>
+        <v>1.041415269315306</v>
       </c>
       <c r="M14">
-        <v>1.078295403303281</v>
+        <v>1.058251572911709</v>
       </c>
       <c r="N14">
-        <v>1.023349580753215</v>
+        <v>1.015154349822309</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.052792772129598</v>
+        <v>1.008663965695281</v>
       </c>
       <c r="D15">
-        <v>1.069053967938874</v>
+        <v>1.048913984678326</v>
       </c>
       <c r="E15">
-        <v>1.06097888498562</v>
+        <v>1.027485914615738</v>
       </c>
       <c r="F15">
-        <v>1.074965140871702</v>
+        <v>1.044629776604754</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056588379823165</v>
+        <v>1.061704268346211</v>
       </c>
       <c r="J15">
-        <v>1.0592065813723</v>
+        <v>1.037531766849504</v>
       </c>
       <c r="K15">
-        <v>1.072487488058925</v>
+        <v>1.062901730421657</v>
       </c>
       <c r="L15">
-        <v>1.064440438267181</v>
+        <v>1.04183830136457</v>
       </c>
       <c r="M15">
-        <v>1.07837843358088</v>
+        <v>1.058688884490394</v>
       </c>
       <c r="N15">
-        <v>1.023377042359099</v>
+        <v>1.015303278014779</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.053470216682439</v>
+        <v>1.012311649404009</v>
       </c>
       <c r="D16">
-        <v>1.069557627841973</v>
+        <v>1.051600737341297</v>
       </c>
       <c r="E16">
-        <v>1.061563346994384</v>
+        <v>1.030470676913785</v>
       </c>
       <c r="F16">
-        <v>1.07555943816442</v>
+        <v>1.047684332714147</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056811821835799</v>
+        <v>1.06316976798013</v>
       </c>
       <c r="J16">
-        <v>1.059669048950899</v>
+        <v>1.039969919137818</v>
       </c>
       <c r="K16">
-        <v>1.072879665311447</v>
+        <v>1.065062764837088</v>
       </c>
       <c r="L16">
-        <v>1.064912165515964</v>
+        <v>1.044275608821402</v>
       </c>
       <c r="M16">
-        <v>1.078861656377079</v>
+        <v>1.06120857810775</v>
       </c>
       <c r="N16">
-        <v>1.023536775773429</v>
+        <v>1.016160847204102</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.053895244882924</v>
+        <v>1.014567419202227</v>
       </c>
       <c r="D17">
-        <v>1.069873601744288</v>
+        <v>1.053264039839077</v>
       </c>
       <c r="E17">
-        <v>1.061930135623718</v>
+        <v>1.032318942097933</v>
       </c>
       <c r="F17">
-        <v>1.075932388157302</v>
+        <v>1.049575845165139</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056951603521946</v>
+        <v>1.064073260150626</v>
       </c>
       <c r="J17">
-        <v>1.059959036974662</v>
+        <v>1.041477078062842</v>
       </c>
       <c r="K17">
-        <v>1.073125491989979</v>
+        <v>1.066398444425408</v>
       </c>
       <c r="L17">
-        <v>1.065208031595665</v>
+        <v>1.045783078205899</v>
       </c>
       <c r="M17">
-        <v>1.079164725503559</v>
+        <v>1.062767092289301</v>
       </c>
       <c r="N17">
-        <v>1.023636879712083</v>
+        <v>1.016690820511229</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.054143187422073</v>
+        <v>1.015871878848761</v>
       </c>
       <c r="D18">
-        <v>1.070057918640342</v>
+        <v>1.054226494235979</v>
       </c>
       <c r="E18">
-        <v>1.062144138727984</v>
+        <v>1.033388607082427</v>
       </c>
       <c r="F18">
-        <v>1.076149982135687</v>
+        <v>1.050670545099526</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057032999682513</v>
+        <v>1.064594703609128</v>
       </c>
       <c r="J18">
-        <v>1.060128143958577</v>
+        <v>1.042348390835917</v>
       </c>
       <c r="K18">
-        <v>1.073268815047817</v>
+        <v>1.067170545797807</v>
       </c>
       <c r="L18">
-        <v>1.065380592224186</v>
+        <v>1.046654866239824</v>
       </c>
       <c r="M18">
-        <v>1.079341484689023</v>
+        <v>1.063668427933797</v>
       </c>
       <c r="N18">
-        <v>1.023695235217444</v>
+        <v>1.016997152504077</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.054227734651059</v>
+        <v>1.016314783164344</v>
       </c>
       <c r="D19">
-        <v>1.070120768403589</v>
+        <v>1.054553376410598</v>
       </c>
       <c r="E19">
-        <v>1.06221711867459</v>
+        <v>1.033751934028293</v>
       </c>
       <c r="F19">
-        <v>1.076224185973896</v>
+        <v>1.051042376153085</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057060730574192</v>
+        <v>1.064771573897878</v>
       </c>
       <c r="J19">
-        <v>1.060185798599497</v>
+        <v>1.042644185591796</v>
       </c>
       <c r="K19">
-        <v>1.073317673724768</v>
+        <v>1.067432645960103</v>
       </c>
       <c r="L19">
-        <v>1.065439428717081</v>
+        <v>1.046950872152539</v>
       </c>
       <c r="M19">
-        <v>1.079401752292233</v>
+        <v>1.063974470724168</v>
       </c>
       <c r="N19">
-        <v>1.023715127261739</v>
+        <v>1.01710113704198</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.053849640197786</v>
+        <v>1.014326572357763</v>
       </c>
       <c r="D20">
-        <v>1.069839699212677</v>
+        <v>1.053086386684178</v>
       </c>
       <c r="E20">
-        <v>1.061890776310287</v>
+        <v>1.032121514791448</v>
       </c>
       <c r="F20">
-        <v>1.075892368091506</v>
+        <v>1.049373797568631</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056936620349381</v>
+        <v>1.063976900898243</v>
       </c>
       <c r="J20">
-        <v>1.059927927946463</v>
+        <v>1.041316184594158</v>
       </c>
       <c r="K20">
-        <v>1.07309912367702</v>
+        <v>1.066255864512822</v>
       </c>
       <c r="L20">
-        <v>1.065176289313091</v>
+        <v>1.045622120809745</v>
       </c>
       <c r="M20">
-        <v>1.079132210696881</v>
+        <v>1.062600681696614</v>
       </c>
       <c r="N20">
-        <v>1.023626142963299</v>
+        <v>1.016634249883004</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.05262077964181</v>
+        <v>1.00772746678138</v>
       </c>
       <c r="D21">
-        <v>1.068926090122953</v>
+        <v>1.048224782979439</v>
       </c>
       <c r="E21">
-        <v>1.060830529583831</v>
+        <v>1.026720403954185</v>
       </c>
       <c r="F21">
-        <v>1.074814285619987</v>
+        <v>1.043846378299217</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056531526406517</v>
+        <v>1.061327163802631</v>
       </c>
       <c r="J21">
-        <v>1.059089117735221</v>
+        <v>1.036905621333672</v>
       </c>
       <c r="K21">
-        <v>1.072387851218026</v>
+        <v>1.062346707249473</v>
       </c>
       <c r="L21">
-        <v>1.064320644922536</v>
+        <v>1.041212636883099</v>
       </c>
       <c r="M21">
-        <v>1.078255718883671</v>
+        <v>1.058042102785636</v>
       </c>
       <c r="N21">
-        <v>1.023336453880264</v>
+        <v>1.01508300466987</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.051848421389189</v>
+        <v>1.00346874471314</v>
       </c>
       <c r="D22">
-        <v>1.068351805032724</v>
+        <v>1.045093778587534</v>
       </c>
       <c r="E22">
-        <v>1.060164467514195</v>
+        <v>1.023243330451856</v>
       </c>
       <c r="F22">
-        <v>1.07413698391486</v>
+        <v>1.04028814275421</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.056275602556469</v>
+        <v>1.059608157022303</v>
       </c>
       <c r="J22">
-        <v>1.058561381912512</v>
+        <v>1.034057442343183</v>
       </c>
       <c r="K22">
-        <v>1.071940077202597</v>
+        <v>1.059821894974381</v>
       </c>
       <c r="L22">
-        <v>1.063782551706572</v>
+        <v>1.038367979402561</v>
       </c>
       <c r="M22">
-        <v>1.077704493277985</v>
+        <v>1.055101614291924</v>
       </c>
       <c r="N22">
-        <v>1.023154014823464</v>
+        <v>1.014080862666445</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.052257837134378</v>
+        <v>1.005737163261527</v>
       </c>
       <c r="D23">
-        <v>1.068656231172571</v>
+        <v>1.046760869383105</v>
       </c>
       <c r="E23">
-        <v>1.060517506661802</v>
+        <v>1.025094568974579</v>
       </c>
       <c r="F23">
-        <v>1.074495983786677</v>
+        <v>1.042182573875772</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056411388708751</v>
+        <v>1.060524613781602</v>
       </c>
       <c r="J23">
-        <v>1.058841177082477</v>
+        <v>1.035574683258779</v>
       </c>
       <c r="K23">
-        <v>1.072177504442555</v>
+        <v>1.06116690220092</v>
       </c>
       <c r="L23">
-        <v>1.064067815967012</v>
+        <v>1.039883074124101</v>
       </c>
       <c r="M23">
-        <v>1.077996721569691</v>
+        <v>1.056667711486575</v>
       </c>
       <c r="N23">
-        <v>1.023250757604342</v>
+        <v>1.014614742758043</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.05387024689667</v>
+        <v>1.014435435494779</v>
       </c>
       <c r="D24">
-        <v>1.069855018262102</v>
+        <v>1.053166684310901</v>
       </c>
       <c r="E24">
-        <v>1.061908560899753</v>
+        <v>1.032210749583898</v>
       </c>
       <c r="F24">
-        <v>1.075910451255645</v>
+        <v>1.049465120659514</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056943391020705</v>
+        <v>1.064020458610523</v>
       </c>
       <c r="J24">
-        <v>1.059941984894946</v>
+        <v>1.041388909441163</v>
       </c>
       <c r="K24">
-        <v>1.073111038578775</v>
+        <v>1.066320311758908</v>
       </c>
       <c r="L24">
-        <v>1.065190632324521</v>
+        <v>1.045694873635827</v>
       </c>
       <c r="M24">
-        <v>1.079146902787553</v>
+        <v>1.062675899285223</v>
       </c>
       <c r="N24">
-        <v>1.023630994541194</v>
+        <v>1.016659820327066</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.055742567192604</v>
+        <v>1.024089576275007</v>
       </c>
       <c r="D25">
-        <v>1.071246716477336</v>
+        <v>1.060299368286572</v>
       </c>
       <c r="E25">
-        <v>1.063525212858346</v>
+        <v>1.040141612821968</v>
       </c>
       <c r="F25">
-        <v>1.077554156943902</v>
+        <v>1.057581588778047</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057555409238148</v>
+        <v>1.067860814355027</v>
       </c>
       <c r="J25">
-        <v>1.061217915017158</v>
+        <v>1.047832564619225</v>
       </c>
       <c r="K25">
-        <v>1.074191860896863</v>
+        <v>1.072028550903302</v>
       </c>
       <c r="L25">
-        <v>1.066493085202064</v>
+        <v>1.052147176433311</v>
       </c>
       <c r="M25">
-        <v>1.080480998423775</v>
+        <v>1.069347262027662</v>
       </c>
       <c r="N25">
-        <v>1.024070926399436</v>
+        <v>1.01892416803774</v>
       </c>
     </row>
   </sheetData>
